--- a/bin/sheets/main_db/teams/AUS/PlayerPerformance_4705.xlsx
+++ b/bin/sheets/main_db/teams/AUS/PlayerPerformance_4705.xlsx
@@ -7,8 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +427,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4705</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Jason Paul Behrendorff</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Left Arm Fast Medium</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +516,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -500,7 +564,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4234</t>
+          <t>4234</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -552,7 +616,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4235</t>
+          <t>4235</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -600,7 +664,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4258</t>
+          <t>4258</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -648,7 +712,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4268</t>
+          <t>4268</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -696,7 +760,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4275</t>
+          <t>4275</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -748,7 +812,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4277</t>
+          <t>4277</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -796,7 +860,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4322</t>
+          <t>4322</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -844,7 +908,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4336</t>
+          <t>4336</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -896,7 +960,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4341</t>
+          <t>4341</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -948,7 +1012,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4351</t>
+          <t>4351</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1000,7 +1064,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4354</t>
+          <t>4354</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1052,7 +1116,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4567</t>
+          <t>4567</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1091,7 +1155,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1113,7 +1177,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -1150,7 +1214,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4234</t>
+          <t>4234</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1187,7 +1251,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4235</t>
+          <t>4235</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1224,7 +1288,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4258</t>
+          <t>4258</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1261,7 +1325,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4268</t>
+          <t>4268</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1298,7 +1362,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4275</t>
+          <t>4275</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1335,7 +1399,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4277</t>
+          <t>4277</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1372,7 +1436,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4322</t>
+          <t>4322</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1409,7 +1473,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4336</t>
+          <t>4336</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1446,7 +1510,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4341</t>
+          <t>4341</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1483,7 +1547,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4351</t>
+          <t>4351</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1520,7 +1584,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4354</t>
+          <t>4354</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1557,7 +1621,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4567</t>
+          <t>4567</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">

--- a/bin/sheets/main_db/teams/AUS/PlayerPerformance_4705.xlsx
+++ b/bin/sheets/main_db/teams/AUS/PlayerPerformance_4705.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -556,7 +557,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>12/01/2019</t>
@@ -656,7 +656,6 @@
           <t>3</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>02/03/2019</t>
@@ -704,7 +703,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>10/03/2019</t>
@@ -752,7 +750,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>27/03/2019</t>
@@ -852,7 +849,6 @@
           <t>7</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>15/06/2019</t>
@@ -900,7 +896,6 @@
           <t>8</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>25/06/2019</t>
@@ -1653,4 +1648,323 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4234</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>11</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4235</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4258</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4268</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>10</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4275</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>11</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4277</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>8</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1.83%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4322</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>10</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4336</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>11</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4341</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>10</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4351</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>3.49%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4354</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0.45%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4567</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>9</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0.95%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>